--- a/doc/Libraries.xlsx
+++ b/doc/Libraries.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/projects/source/CapitalystServer/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7F6682-E9C3-4D45-B663-94CB2A997F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB17ACA-3057-2E48-A8C8-47EBE6A63C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{16C4590E-2EE1-2E48-A54E-254ADDDF0255}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="113">
   <si>
     <t>EvalEx-2.7.jar</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>Added on 15th Oct 2022</t>
+  </si>
+  <si>
+    <t>okhttp-urlconnection-3.14.1.jar</t>
+  </si>
+  <si>
+    <t>Added on 15th Nov 2022</t>
   </si>
 </sst>
 </file>
@@ -417,15 +423,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -443,16 +448,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -766,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ACF262-F5EF-3248-AF5A-56D219874498}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,7 +993,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="b">
@@ -1082,7 +1077,7 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="b">
@@ -1546,192 +1541,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>63</v>
       </c>
-      <c r="C65" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>64</v>
       </c>
-      <c r="C66" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C67" t="b">
+        <f t="shared" ref="C67:C109" si="1">A67=B67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>65</v>
       </c>
-      <c r="C67" t="b">
-        <f t="shared" ref="C67:C108" si="1">A67=B67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="C68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>66</v>
       </c>
-      <c r="C68" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="C69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>67</v>
       </c>
-      <c r="C69" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="C70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>68</v>
       </c>
-      <c r="C70" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C71" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="C72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>71</v>
       </c>
-      <c r="C73" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="C74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C74" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>73</v>
       </c>
-      <c r="C75" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>74</v>
       </c>
-      <c r="C76" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>75</v>
       </c>
-      <c r="C77" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="C78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>76</v>
       </c>
-      <c r="C78" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="C79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>77</v>
-      </c>
-      <c r="C79" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>78</v>
       </c>
       <c r="C80" t="b">
         <f t="shared" si="1"/>
@@ -1740,10 +1738,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" t="b">
         <f t="shared" si="1"/>
@@ -1752,10 +1750,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" t="b">
         <f t="shared" si="1"/>
@@ -1764,10 +1762,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" t="b">
         <f t="shared" si="1"/>
@@ -1776,10 +1774,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="b">
         <f t="shared" si="1"/>
@@ -1788,10 +1786,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" t="b">
         <f t="shared" si="1"/>
@@ -1800,10 +1798,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" t="b">
         <f t="shared" si="1"/>
@@ -1812,10 +1810,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" t="b">
         <f t="shared" si="1"/>
@@ -1824,10 +1822,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" t="b">
         <f t="shared" si="1"/>
@@ -1836,10 +1834,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" t="b">
         <f t="shared" si="1"/>
@@ -1848,10 +1846,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" t="b">
         <f t="shared" si="1"/>
@@ -1860,10 +1858,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" t="b">
         <f t="shared" si="1"/>
@@ -1872,10 +1870,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" t="b">
         <f t="shared" si="1"/>
@@ -1884,10 +1882,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" t="b">
         <f t="shared" si="1"/>
@@ -1896,10 +1894,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" t="b">
         <f t="shared" si="1"/>
@@ -1908,10 +1906,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" t="b">
         <f t="shared" si="1"/>
@@ -1920,10 +1918,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" t="b">
         <f t="shared" si="1"/>
@@ -1932,10 +1930,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" t="b">
         <f t="shared" si="1"/>
@@ -1944,10 +1942,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" t="b">
         <f t="shared" si="1"/>
@@ -1956,10 +1954,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" t="b">
         <f t="shared" si="1"/>
@@ -1968,10 +1966,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" t="b">
         <f t="shared" si="1"/>
@@ -1980,37 +1978,37 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C101" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C102" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" t="b">
         <f t="shared" si="1"/>
@@ -2019,10 +2017,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" t="b">
         <f t="shared" si="1"/>
@@ -2031,10 +2029,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" t="b">
         <f t="shared" si="1"/>
@@ -2043,10 +2041,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" t="b">
         <f t="shared" si="1"/>
@@ -2055,10 +2053,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="b">
         <f t="shared" si="1"/>
@@ -2067,18 +2065,30 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>105</v>
       </c>
-      <c r="C108" t="b">
+      <c r="C109" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C108">
+  <conditionalFormatting sqref="C2:C109">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
